--- a/data/trans_dic/P2A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_R-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2087697199511061</v>
+        <v>0.2073673233816878</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2939780060172787</v>
+        <v>0.2894549242673043</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2808471725933873</v>
+        <v>0.2808133260832278</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1767947851364354</v>
+        <v>0.178137196922569</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3518336841098026</v>
+        <v>0.3481775909409482</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3931737223439965</v>
+        <v>0.3931934227322558</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3236257005879326</v>
+        <v>0.3228001496471222</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2229883570392488</v>
+        <v>0.2207734254707202</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2892446671648702</v>
+        <v>0.2894100618959626</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3530058397340242</v>
+        <v>0.3503167672056861</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3153258679935768</v>
+        <v>0.315544094332433</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2086888579975766</v>
+        <v>0.2103711458926146</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.284827804360542</v>
+        <v>0.2859176458167812</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3803555816182025</v>
+        <v>0.377337484146933</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3691987490636509</v>
+        <v>0.3713955200987749</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3099141060164138</v>
+        <v>0.3057305899729763</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4367326875872113</v>
+        <v>0.4361135141672378</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4888579374940826</v>
+        <v>0.4864442893565255</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4198570007593986</v>
+        <v>0.4172114368907685</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3544935859776003</v>
+        <v>0.3502476259311847</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.346040607086799</v>
+        <v>0.3487097848771172</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4210436211467509</v>
+        <v>0.4167701783408274</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3793445923482727</v>
+        <v>0.3814305758226465</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3046757324004869</v>
+        <v>0.3067150014078001</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.418857021132751</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2652042485604325</v>
+        <v>0.2652042485604324</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3735664751559784</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2759871947019913</v>
+        <v>0.2702241574772412</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3668843262571528</v>
+        <v>0.3670985680583035</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2654265649301081</v>
+        <v>0.2641993554569237</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2149264302572136</v>
+        <v>0.2195480202147592</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4092870445662873</v>
+        <v>0.4126063326500291</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4547151633652273</v>
+        <v>0.4504828527778863</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3772044701589593</v>
+        <v>0.377104560031727</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2275084195932635</v>
+        <v>0.224485119345189</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3483725854223514</v>
+        <v>0.34747093696889</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4217922032121084</v>
+        <v>0.4195513040206083</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3306073713736475</v>
+        <v>0.3280829994958542</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.238395737554334</v>
+        <v>0.2350066036686169</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3445936188509444</v>
+        <v>0.3434813194766728</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4444299670680807</v>
+        <v>0.4442552613724413</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.339550631170492</v>
+        <v>0.3413421668326283</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3214923513367843</v>
+        <v>0.3312303321265127</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4900730886887814</v>
+        <v>0.4932742038890351</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5391897961956912</v>
+        <v>0.5360221318934193</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4557214983003477</v>
+        <v>0.4582285454759631</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3116016818255481</v>
+        <v>0.3137360386669927</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.401538493666296</v>
+        <v>0.3995264725336981</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4804310650508791</v>
+        <v>0.475155332859722</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3858910339294582</v>
+        <v>0.3853052475065821</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3066799737591976</v>
+        <v>0.3033758068052623</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.3645221845567714</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2423267216875868</v>
+        <v>0.2423267216875867</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.5586957555806882</v>
@@ -969,7 +969,7 @@
         <v>0.4326885500068658</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2793997406378985</v>
+        <v>0.2793997406378984</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3307915024800555</v>
+        <v>0.3330049385498025</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3918410753057985</v>
+        <v>0.3898875566429528</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3285423153236489</v>
+        <v>0.3256123252847289</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2070383807093275</v>
+        <v>0.2066807396189207</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5180855242762985</v>
+        <v>0.518907717235313</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5411509110727718</v>
+        <v>0.5437967826617296</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.462646441469178</v>
+        <v>0.4630294170434556</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2874484924477669</v>
+        <v>0.2847026213562727</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4401341728902892</v>
+        <v>0.4401529270897275</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4746682209463289</v>
+        <v>0.4809786732483818</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4051716714172451</v>
+        <v>0.4035423669463531</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2538882607522759</v>
+        <v>0.2550642120118159</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4085732875147917</v>
+        <v>0.4084234498639056</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4671444336572629</v>
+        <v>0.4708870741938809</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4039629349184028</v>
+        <v>0.4018497243474124</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2844554797918989</v>
+        <v>0.2770921080230686</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.596636487986398</v>
+        <v>0.5971425004470549</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6163524546222131</v>
+        <v>0.617573042559176</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5383947954679714</v>
+        <v>0.5361241974644926</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.352014776349604</v>
+        <v>0.3503438910223581</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4947786434198236</v>
+        <v>0.4959973178575896</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5351359168388793</v>
+        <v>0.5389324914438151</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4590826612809778</v>
+        <v>0.4589586325659362</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3025719790876288</v>
+        <v>0.3037189393339024</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.5848953665828828</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.4079535479940266</v>
+        <v>0.4079535479940267</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4653658661338676</v>
+        <v>0.4637633174483619</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.47806456337318</v>
+        <v>0.4745656760327457</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.510661825918315</v>
+        <v>0.5099428673095304</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3481813306817495</v>
+        <v>0.342268300696483</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6209638272035894</v>
+        <v>0.62001423132565</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6948612508301776</v>
+        <v>0.6927510639691753</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5809210730343248</v>
+        <v>0.5831843851205457</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4035137696945859</v>
+        <v>0.3996041894343027</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5546499872383043</v>
+        <v>0.5587894027427545</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5970379384976335</v>
+        <v>0.5971359134329759</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5574159984913428</v>
+        <v>0.5553883611248239</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3831758434129177</v>
+        <v>0.3827361232112651</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5550760733889621</v>
+        <v>0.5528158035870817</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5675890101607888</v>
+        <v>0.5666365514788363</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5936876890421543</v>
+        <v>0.593329813571005</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4226669197434139</v>
+        <v>0.4174177852352314</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7068489047407979</v>
+        <v>0.7053560958127336</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7686371571126522</v>
+        <v>0.7694651547526966</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6558853691756353</v>
+        <v>0.6568997314954887</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4587409439095173</v>
+        <v>0.4591387969575016</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.618448044316648</v>
+        <v>0.6195023943663021</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6586198262028748</v>
+        <v>0.6552892693732503</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.6125523300069285</v>
+        <v>0.6130563190533858</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.430129179035863</v>
+        <v>0.4304551486124448</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.8289927875175421</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.5524387147101066</v>
+        <v>0.5524387147101067</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.7855084803879444</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7236135588018437</v>
+        <v>0.7219212373528892</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7318589874051988</v>
+        <v>0.7322622667979576</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6238783653770371</v>
+        <v>0.6232709074944185</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4798444218381973</v>
+        <v>0.4765110144842476</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.759217452802177</v>
+        <v>0.7593692533161176</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8356259528080151</v>
+        <v>0.8408097319654012</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.7938130599751748</v>
+        <v>0.7908420364100959</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5217494449957987</v>
+        <v>0.5210253594776559</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.7537083975460788</v>
+        <v>0.7579908758315805</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.7984178593280227</v>
+        <v>0.8002299583375412</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.7228174029516119</v>
+        <v>0.7208376648432525</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.5086965294697007</v>
+        <v>0.5070361083116904</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8096914325858467</v>
+        <v>0.8069680167162555</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8152278612446071</v>
+        <v>0.8167340660343564</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7149297065307654</v>
+        <v>0.7140547076935959</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5530950699181965</v>
+        <v>0.5520936124271466</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8410183978542917</v>
+        <v>0.8395067311990231</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9049038040894937</v>
+        <v>0.9096700556769359</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8670884162309143</v>
+        <v>0.8622955620278038</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5823688910266988</v>
+        <v>0.583774266198456</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.8118906205050117</v>
+        <v>0.8145811087749634</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.8538830946471857</v>
+        <v>0.8515071775554285</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.7790756693390564</v>
+        <v>0.7781250514131164</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.5603062811218591</v>
+        <v>0.556720158204548</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7595197569638714</v>
+        <v>0.7585005371379948</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.9055884352625061</v>
+        <v>0.9077167876370724</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8505543772942203</v>
+        <v>0.848544509526633</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4934910894087041</v>
+        <v>0.4945617170758235</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8979384764130928</v>
+        <v>0.8984410829801092</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.9196408918714796</v>
+        <v>0.9178023747952552</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.8777369592675656</v>
+        <v>0.8802245232478239</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.6231636070784067</v>
+        <v>0.624216235878774</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.8463206952146333</v>
+        <v>0.8464596066035989</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.9253621285716332</v>
+        <v>0.9233313400237737</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.8778458655982786</v>
+        <v>0.8757384451919953</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.5712587227982755</v>
+        <v>0.5718147792495932</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8518270101914343</v>
+        <v>0.8517190868630179</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9648421144398116</v>
+        <v>0.964579552412726</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.921103729438041</v>
+        <v>0.9179205650017019</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.581436833255535</v>
+        <v>0.5781425810534443</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9517752973608138</v>
+        <v>0.9518143896254407</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.967002328834896</v>
+        <v>0.9685740922408673</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9405118679719862</v>
+        <v>0.9401125116968108</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.6892408890237122</v>
+        <v>0.6899922373908337</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.8980231556222149</v>
+        <v>0.89780584552423</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.9600064969969331</v>
+        <v>0.9600830565779078</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.9220334308506248</v>
+        <v>0.9228215135843281</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.6267603714241036</v>
+        <v>0.624282968560528</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.968148195328961</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.7598035964460587</v>
+        <v>0.7598035964460585</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.9474512327481638</v>
@@ -1513,7 +1513,7 @@
         <v>0.9558889969024024</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.7423655594005633</v>
+        <v>0.7423655594005631</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8870554444554191</v>
+        <v>0.8859210943175502</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9183727286453014</v>
+        <v>0.9206265729802401</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9009573791860278</v>
+        <v>0.9061045620273481</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6712411251392673</v>
+        <v>0.672819571472893</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9296563665496893</v>
+        <v>0.9292922556984357</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.9535081872728508</v>
+        <v>0.9504326469742509</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9431372224118776</v>
+        <v>0.9394067124852717</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.7286547240804704</v>
+        <v>0.7318472350487464</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.9255239411325474</v>
+        <v>0.9240574838489305</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.9464633917866186</v>
+        <v>0.9465331511986588</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.9357380909799362</v>
+        <v>0.9371172265280413</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.7197858451587804</v>
+        <v>0.7185982653893217</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9613427015486102</v>
+        <v>0.9595389877400436</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.974405042022353</v>
+        <v>0.9753129114328181</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9603421138245474</v>
+        <v>0.9592187503857472</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7585255677081859</v>
+        <v>0.75955452978511</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9767963363958656</v>
+        <v>0.9763359250570904</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.9883181498496737</v>
+        <v>0.9860311226169403</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9813023143016942</v>
+        <v>0.983856030453479</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.7895500983678455</v>
+        <v>0.7889390909910203</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.9651060876736115</v>
+        <v>0.9642288356966082</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.9780563496504764</v>
+        <v>0.9780843719033618</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.9688704653978544</v>
+        <v>0.9694199867055907</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.7686282792106718</v>
+        <v>0.7687454524928246</v>
       </c>
     </row>
     <row r="25">
@@ -1649,7 +1649,7 @@
         <v>0.5810683081933377</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.430109066940141</v>
+        <v>0.4301090669401409</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.4628732124690057</v>
+        <v>0.4649392775666743</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.5387482455819056</v>
+        <v>0.5369566434017515</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.5044779181213911</v>
+        <v>0.5050323128073535</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.3764715311119881</v>
+        <v>0.3772969754943422</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.6201545164417686</v>
+        <v>0.6227361707410726</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.6767117199727849</v>
+        <v>0.6761099179606505</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.620742961573084</v>
+        <v>0.6216215261893834</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.4485774039721955</v>
+        <v>0.4472022786515296</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.5484772876512933</v>
+        <v>0.5499117436912321</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.6135811387074114</v>
+        <v>0.6125523972633186</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.5685646454208154</v>
+        <v>0.5688085759080134</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.4190281585896568</v>
+        <v>0.4180952934597718</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4980636854765476</v>
+        <v>0.5010263420372424</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5723839599355716</v>
+        <v>0.5737535164392629</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.5392396948650187</v>
+        <v>0.5403322207537392</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.4135653995708038</v>
+        <v>0.4135511121450581</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.6527030235810997</v>
+        <v>0.654162740395743</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.7075318429644937</v>
+        <v>0.7087464418306317</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.6529166966170907</v>
+        <v>0.6542580386838661</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.4767751339296522</v>
+        <v>0.4769880657244705</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.5731592627590186</v>
+        <v>0.5736641993934636</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.6371340935000492</v>
+        <v>0.6368616847915314</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.5925045735052676</v>
+        <v>0.5929878569635084</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.4423758749349641</v>
+        <v>0.4422737715511155</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>103146</v>
+        <v>102453</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>133509</v>
+        <v>131455</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>117805</v>
+        <v>117791</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>72096</v>
+        <v>72643</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>164478</v>
+        <v>162769</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>169155</v>
+        <v>169164</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>128076</v>
+        <v>127750</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>80836</v>
+        <v>80033</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>278124</v>
+        <v>278283</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>312190</v>
+        <v>309812</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>257059</v>
+        <v>257237</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>160754</v>
+        <v>162050</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>140723</v>
+        <v>141262</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>172737</v>
+        <v>171366</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>154865</v>
+        <v>155787</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>126381</v>
+        <v>124675</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>204168</v>
+        <v>203878</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>210321</v>
+        <v>209283</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>166161</v>
+        <v>165114</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>128508</v>
+        <v>126969</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>332736</v>
+        <v>335303</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>372361</v>
+        <v>368582</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>309249</v>
+        <v>310949</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>234693</v>
+        <v>236264</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>202986</v>
+        <v>198747</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>252081</v>
+        <v>252229</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>156733</v>
+        <v>156009</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>102496</v>
+        <v>104700</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>256007</v>
+        <v>258083</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>277492</v>
+        <v>274909</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>212571</v>
+        <v>212515</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>114148</v>
+        <v>112632</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>474129</v>
+        <v>472902</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>547209</v>
+        <v>544302</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>381534</v>
+        <v>378621</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>233300</v>
+        <v>229983</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>253445</v>
+        <v>252627</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>305362</v>
+        <v>305242</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>200503</v>
+        <v>201561</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>153316</v>
+        <v>157960</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>306538</v>
+        <v>308540</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>329043</v>
+        <v>327110</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>256819</v>
+        <v>258232</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>156341</v>
+        <v>157412</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>546487</v>
+        <v>543748</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>623283</v>
+        <v>616439</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>445334</v>
+        <v>444658</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>300124</v>
+        <v>296891</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>211266</v>
+        <v>212680</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>267182</v>
+        <v>265850</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>219827</v>
+        <v>217866</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>128537</v>
+        <v>128315</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>357346</v>
+        <v>357913</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>384677</v>
+        <v>386558</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>305988</v>
+        <v>306241</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>179136</v>
+        <v>177425</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>584680</v>
+        <v>584704</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>661076</v>
+        <v>669865</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>539074</v>
+        <v>536906</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>315844</v>
+        <v>317307</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>260943</v>
+        <v>260847</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>318529</v>
+        <v>321080</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>270290</v>
+        <v>268876</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>176600</v>
+        <v>172029</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>411526</v>
+        <v>411875</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>438134</v>
+        <v>439002</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>356087</v>
+        <v>354585</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>219373</v>
+        <v>218332</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>657270</v>
+        <v>658889</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>745290</v>
+        <v>750578</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>610802</v>
+        <v>610637</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>376408</v>
+        <v>377835</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>241593</v>
+        <v>240761</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>293827</v>
+        <v>291676</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>329912</v>
+        <v>329448</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>243942</v>
+        <v>239799</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>320195</v>
+        <v>319705</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>428173</v>
+        <v>426873</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>377063</v>
+        <v>378532</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>297344</v>
+        <v>294463</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>573946</v>
+        <v>578229</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>734844</v>
+        <v>734964</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>721923</v>
+        <v>719297</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>550817</v>
+        <v>550185</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>288166</v>
+        <v>286993</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>348850</v>
+        <v>348264</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>383551</v>
+        <v>383320</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>296128</v>
+        <v>292450</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>364481</v>
+        <v>363711</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>473633</v>
+        <v>474144</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>425720</v>
+        <v>426379</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>338040</v>
+        <v>338333</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>639963</v>
+        <v>641054</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>810640</v>
+        <v>806541</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>793332</v>
+        <v>793985</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>618312</v>
+        <v>618781</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>279829</v>
+        <v>279174</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>314281</v>
+        <v>314455</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>298163</v>
+        <v>297872</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>292391</v>
+        <v>290360</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>306713</v>
+        <v>306775</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>374193</v>
+        <v>376515</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>394405</v>
+        <v>392929</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>317670</v>
+        <v>317229</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>595954</v>
+        <v>599340</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>700395</v>
+        <v>701985</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>704579</v>
+        <v>702649</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>619695</v>
+        <v>617672</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>313116</v>
+        <v>312063</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>350082</v>
+        <v>350729</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>341678</v>
+        <v>341260</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>337026</v>
+        <v>336416</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>339760</v>
+        <v>339149</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>405216</v>
+        <v>407350</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>430812</v>
+        <v>428431</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>354578</v>
+        <v>355434</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>641959</v>
+        <v>644086</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>749051</v>
+        <v>746967</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>759417</v>
+        <v>758491</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>682566</v>
+        <v>678198</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>222223</v>
+        <v>221924</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>280539</v>
+        <v>281198</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>284366</v>
+        <v>283694</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>200890</v>
+        <v>201326</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>307934</v>
+        <v>308106</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>325549</v>
+        <v>324898</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>331576</v>
+        <v>332515</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>273672</v>
+        <v>274135</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>537851</v>
+        <v>537939</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>614239</v>
+        <v>612891</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>625107</v>
+        <v>623606</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>483425</v>
+        <v>483896</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>249230</v>
+        <v>249199</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>298895</v>
+        <v>298813</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>307953</v>
+        <v>306888</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>236691</v>
+        <v>235350</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>326396</v>
+        <v>326410</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>342315</v>
+        <v>342871</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>355290</v>
+        <v>355139</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>302691</v>
+        <v>303021</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>570709</v>
+        <v>570571</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>637235</v>
+        <v>637286</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>656573</v>
+        <v>657134</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>530393</v>
+        <v>528297</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>186178</v>
+        <v>185940</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>229456</v>
+        <v>230019</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>231544</v>
+        <v>232867</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>208218</v>
+        <v>208707</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>310420</v>
+        <v>310298</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>370895</v>
+        <v>369698</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>377414</v>
+        <v>375921</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>338540</v>
+        <v>340023</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>503292</v>
+        <v>502494</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>604629</v>
+        <v>604674</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>614936</v>
+        <v>615843</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>557695</v>
+        <v>556775</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>201769</v>
+        <v>201391</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>243456</v>
+        <v>243683</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>246806</v>
+        <v>246517</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>235293</v>
+        <v>235612</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>326160</v>
+        <v>326006</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>384435</v>
+        <v>383545</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>392687</v>
+        <v>393709</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>366832</v>
+        <v>366548</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>524816</v>
+        <v>524339</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>624812</v>
+        <v>624830</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>636710</v>
+        <v>637071</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>595539</v>
+        <v>595629</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1516624</v>
+        <v>1523394</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1846171</v>
+        <v>1840032</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1712375</v>
+        <v>1714256</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1329984</v>
+        <v>1332900</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>2095624</v>
+        <v>2104348</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>2407949</v>
+        <v>2405808</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>2200249</v>
+        <v>2203364</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>1676313</v>
+        <v>1671174</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>3650523</v>
+        <v>3660070</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>4285918</v>
+        <v>4278732</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>3945209</v>
+        <v>3946901</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>3046216</v>
+        <v>3039434</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>1631927</v>
+        <v>1641634</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1961433</v>
+        <v>1966127</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1830368</v>
+        <v>1834077</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>1461028</v>
+        <v>1460978</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>2205612</v>
+        <v>2210545</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>2517617</v>
+        <v>2521939</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>2314291</v>
+        <v>2319045</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>1781687</v>
+        <v>1782482</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>3814800</v>
+        <v>3818160</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>4450438</v>
+        <v>4448535</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>4111325</v>
+        <v>4114679</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>3215947</v>
+        <v>3215205</v>
       </c>
     </row>
     <row r="36">
